--- a/Excel/StartProcessConfig@s.xlsx
+++ b/Excel/StartProcessConfig@s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\weijingHot\trunk_weijing\Excel\StartConfig\Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF1F315-7EA1-4D2E-A610-6B4BF0325E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFF5A1D-C664-4DF7-B7CA-7B09B627E1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="855" windowWidth="25845" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartProcessConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Id</t>
   </si>
@@ -61,6 +61,10 @@
   </si>
   <si>
     <t>Robot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alpha</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -456,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:F13"/>
+  <dimension ref="C3:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -583,9 +587,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C11" s="3">
-        <v>201</v>
+    <row r="11" spans="3:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="7">
+        <v>200</v>
       </c>
       <c r="D11" s="7">
         <v>1</v>
@@ -593,27 +597,27 @@
       <c r="E11" s="5">
         <v>20197</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>10</v>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
-        <v>202</v>
-      </c>
-      <c r="D12" s="3">
+        <v>201</v>
+      </c>
+      <c r="D12" s="7">
         <v>1</v>
       </c>
       <c r="E12" s="5">
         <v>20198</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C13" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -622,6 +626,20 @@
         <v>20199</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="3">
+        <v>203</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>20200</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Excel/StartProcessConfig@s.xlsx
+++ b/Excel/StartProcessConfig@s.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFF5A1D-C664-4DF7-B7CA-7B09B627E1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811E1ADE-C3CB-48D8-B0D9-460BD9DFEE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartProcessConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Id</t>
   </si>
@@ -50,10 +50,6 @@
   </si>
   <si>
     <t>Server</t>
-  </si>
-  <si>
-    <t>BanHao</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Center</t>
@@ -61,10 +57,6 @@
   </si>
   <si>
     <t>Robot</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alpha</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -460,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:F14"/>
+  <dimension ref="C3:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -525,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="5">
-        <v>20192</v>
+        <v>20302</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>9</v>
@@ -539,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="5">
-        <v>20193</v>
+        <v>20303</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>9</v>
@@ -553,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="5">
-        <v>20194</v>
+        <v>20304</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>9</v>
@@ -567,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="5">
-        <v>20195</v>
+        <v>20305</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>9</v>
@@ -581,66 +573,38 @@
         <v>1</v>
       </c>
       <c r="E10" s="5">
-        <v>20196</v>
+        <v>20306</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="3:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="7">
-        <v>200</v>
-      </c>
-      <c r="D11" s="7">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="3">
+        <v>202</v>
+      </c>
+      <c r="D11" s="3">
         <v>1</v>
       </c>
       <c r="E11" s="5">
-        <v>20197</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
+        <v>20307</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
-        <v>201</v>
-      </c>
-      <c r="D12" s="7">
+        <v>203</v>
+      </c>
+      <c r="D12" s="3">
         <v>1</v>
       </c>
       <c r="E12" s="5">
-        <v>20198</v>
+        <v>20308</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C13" s="3">
-        <v>202</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5">
-        <v>20199</v>
-      </c>
-      <c r="F13" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C14" s="3">
-        <v>203</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5">
-        <v>20200</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartProcessConfig@s.xlsx
+++ b/Excel/StartProcessConfig@s.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811E1ADE-C3CB-48D8-B0D9-460BD9DFEE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C72D76-C708-4547-8400-BF6B5E8CD8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="C3:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E6" sqref="E6:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="5">
-        <v>20302</v>
+        <v>10302</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>9</v>
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="5">
-        <v>20303</v>
+        <v>10303</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>9</v>
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="5">
-        <v>20304</v>
+        <v>10304</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>9</v>
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="5">
-        <v>20305</v>
+        <v>10305</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>9</v>
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="5">
-        <v>20306</v>
+        <v>10306</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>9</v>
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="5">
-        <v>20307</v>
+        <v>10307</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>10</v>
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="5">
-        <v>20308</v>
+        <v>10308</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>11</v>

--- a/Excel/StartProcessConfig@s.xlsx
+++ b/Excel/StartProcessConfig@s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C72D76-C708-4547-8400-BF6B5E8CD8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7D9C99-4756-431A-92F7-3C34AD4A4867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1875" yWindow="1800" windowWidth="20415" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartProcessConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -49,14 +49,63 @@
     <t>string</t>
   </si>
   <si>
+    <t>Center</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalDungeon1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalDungeon2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalDungeon3</t>
+  </si>
+  <si>
+    <t>LocalDungeon4</t>
+  </si>
+  <si>
+    <t>ReCharge</t>
+  </si>
+  <si>
+    <t>DBCache</t>
+  </si>
+  <si>
+    <t>Map101</t>
+  </si>
+  <si>
+    <t>Gate</t>
+  </si>
+  <si>
+    <t>Battle</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>野外戰鬥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>外围活动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Server</t>
-  </si>
-  <si>
-    <t>Center</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Robot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进程名</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -127,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -147,6 +196,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,22 +504,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:F12"/>
+  <dimension ref="C3:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E12"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="3" max="6" width="12.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -480,8 +532,11 @@
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -494,8 +549,11 @@
       <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
@@ -508,8 +566,11 @@
       <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="3:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -520,10 +581,13 @@
         <v>10302</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -534,10 +598,13 @@
         <v>10303</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C8" s="7">
         <v>3</v>
       </c>
@@ -547,11 +614,14 @@
       <c r="E8" s="5">
         <v>10304</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C9" s="7">
         <v>4</v>
       </c>
@@ -561,11 +631,14 @@
       <c r="E9" s="5">
         <v>10305</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C10" s="7">
         <v>5</v>
       </c>
@@ -575,36 +648,136 @@
       <c r="E10" s="5">
         <v>10306</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C11" s="3">
-        <v>202</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="F10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="7">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5">
         <v>1</v>
       </c>
       <c r="E11" s="5">
         <v>10307</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C12" s="3">
-        <v>203</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="F11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="7">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5">
         <v>1</v>
       </c>
       <c r="E12" s="5">
         <v>10308</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>11</v>
+      <c r="F12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="7">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>10309</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="7">
+        <v>9</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>10310</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="7">
+        <v>10</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>10311</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="3">
+        <v>202</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>10307</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="3">
+        <v>203</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="5">
+        <v>10308</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartProcessConfig@s.xlsx
+++ b/Excel/StartProcessConfig@s.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7D9C99-4756-431A-92F7-3C34AD4A4867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE564746-9F97-4E49-9FC9-5E6E70131F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="1800" windowWidth="20415" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartProcessConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -47,10 +47,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>Center</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Robot</t>
@@ -106,6 +102,10 @@
   </si>
   <si>
     <t>进程名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dll</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -504,22 +504,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H17"/>
+  <dimension ref="C3:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="6" width="12.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="3" max="7" width="12.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -530,13 +530,16 @@
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="H3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -547,13 +550,16 @@
         <v>5</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="H4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
@@ -569,8 +575,11 @@
       <c r="G5" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -581,13 +590,16 @@
         <v>10302</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -598,13 +610,16 @@
         <v>10303</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C8" s="7">
         <v>3</v>
       </c>
@@ -615,13 +630,16 @@
         <v>10304</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C9" s="7">
         <v>4</v>
       </c>
@@ -632,13 +650,16 @@
         <v>10305</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C10" s="7">
         <v>5</v>
       </c>
@@ -649,13 +670,16 @@
         <v>10306</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C11" s="7">
         <v>6</v>
       </c>
@@ -666,13 +690,16 @@
         <v>10307</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C12" s="7">
         <v>7</v>
       </c>
@@ -683,13 +710,16 @@
         <v>10308</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C13" s="7">
         <v>8</v>
       </c>
@@ -700,13 +730,16 @@
         <v>10309</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C14" s="7">
         <v>9</v>
       </c>
@@ -717,16 +750,19 @@
         <v>10310</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C15" s="7">
         <v>10</v>
       </c>
@@ -737,47 +773,36 @@
         <v>10311</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C16" s="3">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D16" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="5">
-        <v>10307</v>
+        <v>10312</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C17" s="3">
-        <v>203</v>
-      </c>
-      <c r="D17" s="3">
-        <v>2</v>
-      </c>
-      <c r="E17" s="5">
-        <v>10308</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>10</v>
+      <c r="G16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
